--- a/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8BBA05-CF25-4783-ADE3-6D189105E68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B30831B-AC86-400C-9578-0104D35A2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE60BB14-8189-4BBA-AFD5-E45F802BC16B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{572D1169-8127-4ED6-A84B-4CF2D7311C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,445 +74,445 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>4,71%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8772F5-E42F-432A-A844-86D4BF48FB19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A77918D-8ACC-4103-A05E-A14B9B122A28}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,10 +1479,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2599</v>
@@ -1491,13 +1491,13 @@
         <v>2426193</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1565,13 @@
         <v>13868</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -1580,13 +1580,13 @@
         <v>14558</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -1595,13 +1595,13 @@
         <v>28426</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1616,13 @@
         <v>36370</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>62</v>
@@ -1631,13 +1631,13 @@
         <v>42689</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
@@ -1646,13 +1646,13 @@
         <v>79059</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
         <v>188136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>107</v>
@@ -1840,10 +1840,10 @@
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>420</v>
@@ -1852,13 +1852,13 @@
         <v>345952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>262137</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>530</v>
@@ -1888,13 +1888,13 @@
         <v>341382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>823</v>
@@ -1903,10 +1903,10 @@
         <v>603519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>

--- a/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B30831B-AC86-400C-9578-0104D35A2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA205401-8E74-432A-A7D5-19D668FCC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{572D1169-8127-4ED6-A84B-4CF2D7311C3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B0164EB-D9C2-4F44-B95F-83E117FDD30C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A77918D-8ACC-4103-A05E-A14B9B122A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBE19B4-B169-4367-BC04-555EB08B3B40}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA205401-8E74-432A-A7D5-19D668FCC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B11EA4C-81DA-4A34-AF12-B7C35B4429B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B0164EB-D9C2-4F44-B95F-83E117FDD30C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85E3DC9A-990F-4A6B-8F41-5D9BD1440148}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>11,48%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>33,27%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>38,76%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,28 +164,28 @@
     <t>46,62%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>35,79%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,106 +197,109 @@
     <t>5,98%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>64,0%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
   </si>
   <si>
     <t>55,04%</t>
   </si>
   <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,214 +308,211 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
     <t>4,71%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBE19B4-B169-4367-BC04-555EB08B3B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E1993F-B895-4840-92B1-98E1A9FAE85E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,10 +1479,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2599</v>
@@ -1491,13 +1491,13 @@
         <v>2426193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1565,13 @@
         <v>13868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -1580,13 +1580,13 @@
         <v>14558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -1595,13 +1595,13 @@
         <v>28426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1616,13 @@
         <v>36370</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>62</v>
@@ -1631,13 +1631,13 @@
         <v>42689</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
@@ -1646,13 +1646,13 @@
         <v>79059</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
         <v>188136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>107</v>
@@ -1840,10 +1840,10 @@
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>420</v>
@@ -1852,13 +1852,13 @@
         <v>345952</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>262137</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>530</v>
@@ -1888,13 +1888,13 @@
         <v>341382</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>823</v>
@@ -1903,10 +1903,10 @@
         <v>603519</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>

--- a/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B11EA4C-81DA-4A34-AF12-B7C35B4429B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97228B45-963D-4222-897B-AB3D9B29986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85E3DC9A-990F-4A6B-8F41-5D9BD1440148}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{864CCF64-05F6-4BE4-B4C4-3A6280A859FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según se ha sentido solo/a en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -71,448 +71,442 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E1993F-B895-4840-92B1-98E1A9FAE85E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF4852-7C8A-4914-A695-7A893C26A487}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1048,7 +1042,7 @@
         <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>46672</v>
+        <v>42433</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1063,7 +1057,7 @@
         <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>77645</v>
+        <v>68696</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1078,7 +1072,7 @@
         <v>205</v>
       </c>
       <c r="N4" s="7">
-        <v>124316</v>
+        <v>111128</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1099,7 +1093,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>62074</v>
+        <v>56640</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1114,7 +1108,7 @@
         <v>237</v>
       </c>
       <c r="I5" s="7">
-        <v>134361</v>
+        <v>119083</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1129,7 +1123,7 @@
         <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>196435</v>
+        <v>175723</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1150,7 +1144,7 @@
         <v>226</v>
       </c>
       <c r="D6" s="7">
-        <v>179866</v>
+        <v>169650</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1165,7 +1159,7 @@
         <v>527</v>
       </c>
       <c r="I6" s="7">
-        <v>322834</v>
+        <v>287836</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1180,7 +1174,7 @@
         <v>753</v>
       </c>
       <c r="N6" s="7">
-        <v>502701</v>
+        <v>457486</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1201,7 +1195,7 @@
         <v>315</v>
       </c>
       <c r="D7" s="7">
-        <v>252061</v>
+        <v>245348</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1216,7 +1210,7 @@
         <v>521</v>
       </c>
       <c r="I7" s="7">
-        <v>298084</v>
+        <v>277336</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1231,7 +1225,7 @@
         <v>836</v>
       </c>
       <c r="N7" s="7">
-        <v>550145</v>
+        <v>522684</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1252,7 +1246,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>540673</v>
+        <v>514071</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1267,7 +1261,7 @@
         <v>1423</v>
       </c>
       <c r="I8" s="7">
-        <v>832924</v>
+        <v>752950</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1282,7 +1276,7 @@
         <v>2113</v>
       </c>
       <c r="N8" s="7">
-        <v>1373597</v>
+        <v>1267021</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1305,7 +1299,7 @@
         <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>129175</v>
+        <v>315025</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1320,7 +1314,7 @@
         <v>95</v>
       </c>
       <c r="I9" s="7">
-        <v>64035</v>
+        <v>56435</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1335,7 +1329,7 @@
         <v>181</v>
       </c>
       <c r="N9" s="7">
-        <v>193209</v>
+        <v>371460</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1356,7 +1350,7 @@
         <v>171</v>
       </c>
       <c r="D10" s="7">
-        <v>163693</v>
+        <v>149625</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1371,7 +1365,7 @@
         <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>164333</v>
+        <v>144884</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1386,7 +1380,7 @@
         <v>402</v>
       </c>
       <c r="N10" s="7">
-        <v>328026</v>
+        <v>294508</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1407,7 +1401,7 @@
         <v>669</v>
       </c>
       <c r="D11" s="7">
-        <v>712238</v>
+        <v>678014</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1422,7 +1416,7 @@
         <v>1058</v>
       </c>
       <c r="I11" s="7">
-        <v>748444</v>
+        <v>669537</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1437,7 +1431,7 @@
         <v>1727</v>
       </c>
       <c r="N11" s="7">
-        <v>1460682</v>
+        <v>1347551</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1446,7 +1440,7 @@
         <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,46 +1452,46 @@
         <v>1065</v>
       </c>
       <c r="D12" s="7">
-        <v>1155745</v>
+        <v>1146637</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1534</v>
       </c>
       <c r="I12" s="7">
-        <v>1270449</v>
+        <v>1364824</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2599</v>
       </c>
       <c r="N12" s="7">
-        <v>2426193</v>
+        <v>2511461</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,7 +1503,7 @@
         <v>1991</v>
       </c>
       <c r="D13" s="7">
-        <v>2160850</v>
+        <v>2289301</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1524,7 +1518,7 @@
         <v>2918</v>
       </c>
       <c r="I13" s="7">
-        <v>2247260</v>
+        <v>2235679</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1539,7 +1533,7 @@
         <v>4909</v>
       </c>
       <c r="N13" s="7">
-        <v>4408110</v>
+        <v>4524980</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1553,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,46 +1556,46 @@
         <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>13868</v>
+        <v>12716</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>14558</v>
+        <v>13056</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>28426</v>
+        <v>25772</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,46 +1607,46 @@
         <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>36370</v>
+        <v>32896</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>62</v>
       </c>
       <c r="I15" s="7">
-        <v>42689</v>
+        <v>38338</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
       </c>
       <c r="N15" s="7">
-        <v>79059</v>
+        <v>71233</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,46 +1658,46 @@
         <v>194</v>
       </c>
       <c r="D16" s="7">
-        <v>188136</v>
+        <v>182108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>186315</v>
+        <v>170183</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>468</v>
       </c>
       <c r="N16" s="7">
-        <v>374451</v>
+        <v>352292</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,46 +1709,46 @@
         <v>433</v>
       </c>
       <c r="D17" s="7">
-        <v>434665</v>
+        <v>418903</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>647</v>
       </c>
       <c r="I17" s="7">
-        <v>469538</v>
+        <v>438147</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1080</v>
       </c>
       <c r="N17" s="7">
-        <v>904202</v>
+        <v>857051</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1760,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1781,7 +1775,7 @@
         <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>713100</v>
+        <v>659724</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1796,7 +1790,7 @@
         <v>1684</v>
       </c>
       <c r="N18" s="7">
-        <v>1386139</v>
+        <v>1306348</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1819,46 +1813,46 @@
         <v>167</v>
       </c>
       <c r="D19" s="7">
-        <v>189715</v>
+        <v>370173</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
       </c>
       <c r="I19" s="7">
-        <v>156237</v>
+        <v>138186</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>420</v>
       </c>
       <c r="N19" s="7">
-        <v>345952</v>
+        <v>508360</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,46 +1864,46 @@
         <v>293</v>
       </c>
       <c r="D20" s="7">
-        <v>262137</v>
+        <v>239160</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>530</v>
       </c>
       <c r="I20" s="7">
-        <v>341382</v>
+        <v>302304</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>823</v>
       </c>
       <c r="N20" s="7">
-        <v>603519</v>
+        <v>541464</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,46 +1915,46 @@
         <v>1089</v>
       </c>
       <c r="D21" s="7">
-        <v>1080239</v>
+        <v>1029773</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1859</v>
       </c>
       <c r="I21" s="7">
-        <v>1257594</v>
+        <v>1127555</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2948</v>
       </c>
       <c r="N21" s="7">
-        <v>2337833</v>
+        <v>2157329</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,46 +1966,46 @@
         <v>1813</v>
       </c>
       <c r="D22" s="7">
-        <v>1842470</v>
+        <v>1810889</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>2702</v>
       </c>
       <c r="I22" s="7">
-        <v>2038071</v>
+        <v>2080307</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>4515</v>
       </c>
       <c r="N22" s="7">
-        <v>3880541</v>
+        <v>3891195</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2017,7 @@
         <v>3362</v>
       </c>
       <c r="D23" s="7">
-        <v>3374561</v>
+        <v>3449996</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2038,7 +2032,7 @@
         <v>5344</v>
       </c>
       <c r="I23" s="7">
-        <v>3793284</v>
+        <v>3648352</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2053,7 +2047,7 @@
         <v>8706</v>
       </c>
       <c r="N23" s="7">
-        <v>7167846</v>
+        <v>7098348</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
